--- a/cpp_para_ingeniera/0/C++ Control.xlsx
+++ b/cpp_para_ingeniera/0/C++ Control.xlsx
@@ -12,20 +12,21 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="981"/>
   </bookViews>
   <sheets>
-    <sheet name="2" sheetId="7" r:id="rId1"/>
-    <sheet name="3" sheetId="8" r:id="rId2"/>
-    <sheet name="4" sheetId="9" r:id="rId3"/>
-    <sheet name="5" sheetId="10" r:id="rId4"/>
-    <sheet name="6" sheetId="1" r:id="rId5"/>
-    <sheet name="7" sheetId="2" r:id="rId6"/>
-    <sheet name="8" sheetId="3" r:id="rId7"/>
-    <sheet name="9" sheetId="4" r:id="rId8"/>
-    <sheet name="10" sheetId="11" r:id="rId9"/>
-    <sheet name="11" sheetId="12" r:id="rId10"/>
-    <sheet name="12" sheetId="13" r:id="rId11"/>
-    <sheet name="13" sheetId="14" r:id="rId12"/>
-    <sheet name="14" sheetId="5" r:id="rId13"/>
-    <sheet name="15" sheetId="15" r:id="rId14"/>
+    <sheet name="0" sheetId="16" r:id="rId1"/>
+    <sheet name="2" sheetId="7" r:id="rId2"/>
+    <sheet name="3" sheetId="8" r:id="rId3"/>
+    <sheet name="4" sheetId="9" r:id="rId4"/>
+    <sheet name="5" sheetId="10" r:id="rId5"/>
+    <sheet name="6" sheetId="1" r:id="rId6"/>
+    <sheet name="7" sheetId="2" r:id="rId7"/>
+    <sheet name="8" sheetId="3" r:id="rId8"/>
+    <sheet name="9" sheetId="4" r:id="rId9"/>
+    <sheet name="10" sheetId="11" r:id="rId10"/>
+    <sheet name="11" sheetId="12" r:id="rId11"/>
+    <sheet name="12" sheetId="13" r:id="rId12"/>
+    <sheet name="13" sheetId="14" r:id="rId13"/>
+    <sheet name="14" sheetId="5" r:id="rId14"/>
+    <sheet name="15" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="144">
   <si>
     <t>P6.1</t>
   </si>
@@ -466,6 +467,9 @@
   </si>
   <si>
     <t>fin</t>
+  </si>
+  <si>
+    <t>nd</t>
   </si>
 </sst>
 </file>
@@ -517,11 +521,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -870,12 +875,169 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4">
+        <v>44287</v>
+      </c>
+      <c r="C1" s="4">
+        <v>44287</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4">
+        <v>44291</v>
+      </c>
+      <c r="C2" s="4">
+        <v>44292</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4">
+        <v>44293</v>
+      </c>
+      <c r="C3" s="4">
+        <v>44295</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4">
+        <v>44296</v>
+      </c>
+      <c r="C4" s="4">
+        <v>44298</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" s="4">
+        <v>44299</v>
+      </c>
+      <c r="C5" s="4">
+        <v>44301</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4">
+        <v>44302</v>
+      </c>
+      <c r="C6" s="4">
+        <v>44304</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" s="4">
+        <v>44305</v>
+      </c>
+      <c r="C7" s="4">
+        <v>44307</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" s="4">
+        <v>44308</v>
+      </c>
+      <c r="C12" s="4">
+        <v>44310</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" s="4">
+        <v>44311</v>
+      </c>
+      <c r="C13" s="4">
+        <v>44313</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>143</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -918,6 +1080,18 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -1031,7 +1205,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1061,6 +1235,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
@@ -1071,7 +1257,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1085,7 +1271,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G20"/>
   <sheetViews>
@@ -1390,7 +1576,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
@@ -1618,22 +1804,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1025" width="10.5703125"/>
-  </cols>
-  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
@@ -1659,10 +1829,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1025" width="10.5703125"/>
+  </cols>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/cpp_para_ingeniera/0/C++ Control.xlsx
+++ b/cpp_para_ingeniera/0/C++ Control.xlsx
@@ -878,7 +878,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -902,10 +902,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="4">
-        <v>44291</v>
+        <v>44301</v>
       </c>
       <c r="C2" s="4">
-        <v>44292</v>
+        <v>44302</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -913,10 +913,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="4">
-        <v>44293</v>
+        <v>44303</v>
       </c>
       <c r="C3" s="4">
-        <v>44295</v>
+        <v>44304</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -924,10 +924,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="4">
-        <v>44296</v>
+        <v>44305</v>
       </c>
       <c r="C4" s="4">
-        <v>44298</v>
+        <v>44306</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -935,10 +935,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="4">
-        <v>44299</v>
+        <v>44307</v>
       </c>
       <c r="C5" s="4">
-        <v>44301</v>
+        <v>44308</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -946,10 +946,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="4">
-        <v>44302</v>
+        <v>44309</v>
       </c>
       <c r="C6" s="4">
-        <v>44304</v>
+        <v>44310</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -959,10 +959,10 @@
         <v>7</v>
       </c>
       <c r="B7" s="4">
-        <v>44305</v>
+        <v>44311</v>
       </c>
       <c r="C7" s="4">
-        <v>44307</v>
+        <v>44312</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -1004,10 +1004,10 @@
         <v>12</v>
       </c>
       <c r="B12" s="4">
-        <v>44308</v>
+        <v>44313</v>
       </c>
       <c r="C12" s="4">
-        <v>44310</v>
+        <v>44314</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1015,10 +1015,10 @@
         <v>13</v>
       </c>
       <c r="B13" s="4">
-        <v>44311</v>
+        <v>44315</v>
       </c>
       <c r="C13" s="4">
-        <v>44313</v>
+        <v>44316</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">

--- a/cpp_para_ingeniera/0/C++ Control.xlsx
+++ b/cpp_para_ingeniera/0/C++ Control.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="981"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="981" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="16" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="331">
   <si>
     <t>P6.1</t>
   </si>
@@ -470,6 +470,567 @@
   </si>
   <si>
     <t>nd</t>
+  </si>
+  <si>
+    <t>P3.1</t>
+  </si>
+  <si>
+    <t>P3.2</t>
+  </si>
+  <si>
+    <t>P3.3</t>
+  </si>
+  <si>
+    <t>P3.4</t>
+  </si>
+  <si>
+    <t>P3.5</t>
+  </si>
+  <si>
+    <t>P3.6</t>
+  </si>
+  <si>
+    <t>P3.7</t>
+  </si>
+  <si>
+    <t>P3.8</t>
+  </si>
+  <si>
+    <t>P3.9</t>
+  </si>
+  <si>
+    <t>P3.10</t>
+  </si>
+  <si>
+    <t>P3.11</t>
+  </si>
+  <si>
+    <t>P3.12</t>
+  </si>
+  <si>
+    <t>P3.13</t>
+  </si>
+  <si>
+    <t>P3.14</t>
+  </si>
+  <si>
+    <t>P3.15</t>
+  </si>
+  <si>
+    <t>P3.16</t>
+  </si>
+  <si>
+    <t>P3.17</t>
+  </si>
+  <si>
+    <t>P4.1</t>
+  </si>
+  <si>
+    <t>P4.2</t>
+  </si>
+  <si>
+    <t>P4.3</t>
+  </si>
+  <si>
+    <t>P4.4</t>
+  </si>
+  <si>
+    <t>P4.5</t>
+  </si>
+  <si>
+    <t>P4.6</t>
+  </si>
+  <si>
+    <t>P4.7</t>
+  </si>
+  <si>
+    <t>P4.8</t>
+  </si>
+  <si>
+    <t>P4.9</t>
+  </si>
+  <si>
+    <t>P4.10</t>
+  </si>
+  <si>
+    <t>E3.1.1</t>
+  </si>
+  <si>
+    <t>E3.2.1</t>
+  </si>
+  <si>
+    <t>E3.4.1</t>
+  </si>
+  <si>
+    <t>E3.3.1</t>
+  </si>
+  <si>
+    <t>E3.5.1</t>
+  </si>
+  <si>
+    <t>E3.6.1</t>
+  </si>
+  <si>
+    <t>E3.4.2</t>
+  </si>
+  <si>
+    <t>E3.5.2</t>
+  </si>
+  <si>
+    <t>E3.6.2</t>
+  </si>
+  <si>
+    <t>E3.7.1</t>
+  </si>
+  <si>
+    <t>E3.8.1</t>
+  </si>
+  <si>
+    <t>E3.1.2</t>
+  </si>
+  <si>
+    <t>E3.2.2</t>
+  </si>
+  <si>
+    <t>E3.3.2</t>
+  </si>
+  <si>
+    <t>E3.7.2</t>
+  </si>
+  <si>
+    <t>E3.8.2</t>
+  </si>
+  <si>
+    <t>E3.1.3</t>
+  </si>
+  <si>
+    <t>E3.2.3</t>
+  </si>
+  <si>
+    <t>E3.3.3</t>
+  </si>
+  <si>
+    <t>E3.4.3</t>
+  </si>
+  <si>
+    <t>E3.5.3</t>
+  </si>
+  <si>
+    <t>E3.6.3</t>
+  </si>
+  <si>
+    <t>E3.7.3</t>
+  </si>
+  <si>
+    <t>E3.8.3</t>
+  </si>
+  <si>
+    <t>E3.1.4</t>
+  </si>
+  <si>
+    <t>E3.2.4</t>
+  </si>
+  <si>
+    <t>E3.3.4</t>
+  </si>
+  <si>
+    <t>E3.4.4</t>
+  </si>
+  <si>
+    <t>E3.5.4</t>
+  </si>
+  <si>
+    <t>E3.6.4</t>
+  </si>
+  <si>
+    <t>E3.7.4</t>
+  </si>
+  <si>
+    <t>E3.8.4</t>
+  </si>
+  <si>
+    <t>E3.1.5</t>
+  </si>
+  <si>
+    <t>E3.2.5</t>
+  </si>
+  <si>
+    <t>E3.3.5</t>
+  </si>
+  <si>
+    <t>E3.4.5</t>
+  </si>
+  <si>
+    <t>E3.5.5</t>
+  </si>
+  <si>
+    <t>E3.6.5</t>
+  </si>
+  <si>
+    <t>E3.7.5</t>
+  </si>
+  <si>
+    <t>E3.8.5</t>
+  </si>
+  <si>
+    <t>E3.1.6</t>
+  </si>
+  <si>
+    <t>E3.2.6</t>
+  </si>
+  <si>
+    <t>E3.3.6</t>
+  </si>
+  <si>
+    <t>E3.4.6</t>
+  </si>
+  <si>
+    <t>E3.5.6</t>
+  </si>
+  <si>
+    <t>E3.6.6</t>
+  </si>
+  <si>
+    <t>E3.7.6</t>
+  </si>
+  <si>
+    <t>E3.8.6</t>
+  </si>
+  <si>
+    <t>E3.1.7</t>
+  </si>
+  <si>
+    <t>E3.2.7</t>
+  </si>
+  <si>
+    <t>E3.3.7</t>
+  </si>
+  <si>
+    <t>E3.4.7</t>
+  </si>
+  <si>
+    <t>E3.5.7</t>
+  </si>
+  <si>
+    <t>E3.6.7</t>
+  </si>
+  <si>
+    <t>E3.7.7</t>
+  </si>
+  <si>
+    <t>E3.8.7</t>
+  </si>
+  <si>
+    <t>E3.1.8</t>
+  </si>
+  <si>
+    <t>E3.2.8</t>
+  </si>
+  <si>
+    <t>E3.3.8</t>
+  </si>
+  <si>
+    <t>E3.4.8</t>
+  </si>
+  <si>
+    <t>E3.5.8</t>
+  </si>
+  <si>
+    <t>E3.6.8</t>
+  </si>
+  <si>
+    <t>E3.7.8</t>
+  </si>
+  <si>
+    <t>E3.8.8</t>
+  </si>
+  <si>
+    <t>E3.1.9</t>
+  </si>
+  <si>
+    <t>E3.2.9</t>
+  </si>
+  <si>
+    <t>E3.3.9</t>
+  </si>
+  <si>
+    <t>E3.4.9</t>
+  </si>
+  <si>
+    <t>E3.5.9</t>
+  </si>
+  <si>
+    <t>E3.6.9</t>
+  </si>
+  <si>
+    <t>E3.7.9</t>
+  </si>
+  <si>
+    <t>E3.8.9</t>
+  </si>
+  <si>
+    <t>E3.1.10</t>
+  </si>
+  <si>
+    <t>E3.2.10</t>
+  </si>
+  <si>
+    <t>E3.3.10</t>
+  </si>
+  <si>
+    <t>E3.4.10</t>
+  </si>
+  <si>
+    <t>E3.5.10</t>
+  </si>
+  <si>
+    <t>E3.6.10</t>
+  </si>
+  <si>
+    <t>E3.7.10</t>
+  </si>
+  <si>
+    <t>E3.8.10</t>
+  </si>
+  <si>
+    <t>E3.1.11</t>
+  </si>
+  <si>
+    <t>E3.2.11</t>
+  </si>
+  <si>
+    <t>E3.3.11</t>
+  </si>
+  <si>
+    <t>E3.4.11</t>
+  </si>
+  <si>
+    <t>E3.5.11</t>
+  </si>
+  <si>
+    <t>E3.6.11</t>
+  </si>
+  <si>
+    <t>E3.7.11</t>
+  </si>
+  <si>
+    <t>E3.8.11</t>
+  </si>
+  <si>
+    <t>E3.1.12</t>
+  </si>
+  <si>
+    <t>E3.2.12</t>
+  </si>
+  <si>
+    <t>E3.3.12</t>
+  </si>
+  <si>
+    <t>E3.4.12</t>
+  </si>
+  <si>
+    <t>E3.5.12</t>
+  </si>
+  <si>
+    <t>E3.6.12</t>
+  </si>
+  <si>
+    <t>E3.7.12</t>
+  </si>
+  <si>
+    <t>E3.8.12</t>
+  </si>
+  <si>
+    <t>E3.1.13</t>
+  </si>
+  <si>
+    <t>E3.2.13</t>
+  </si>
+  <si>
+    <t>E3.3.13</t>
+  </si>
+  <si>
+    <t>E3.4.13</t>
+  </si>
+  <si>
+    <t>E3.5.13</t>
+  </si>
+  <si>
+    <t>E3.6.13</t>
+  </si>
+  <si>
+    <t>E3.7.13</t>
+  </si>
+  <si>
+    <t>E3.8.13</t>
+  </si>
+  <si>
+    <t>E3.1.14</t>
+  </si>
+  <si>
+    <t>E3.2.14</t>
+  </si>
+  <si>
+    <t>E3.3.14</t>
+  </si>
+  <si>
+    <t>E3.4.14</t>
+  </si>
+  <si>
+    <t>E3.5.14</t>
+  </si>
+  <si>
+    <t>E3.6.14</t>
+  </si>
+  <si>
+    <t>E3.7.14</t>
+  </si>
+  <si>
+    <t>E3.8.14</t>
+  </si>
+  <si>
+    <t>E3.1.15</t>
+  </si>
+  <si>
+    <t>E3.2.15</t>
+  </si>
+  <si>
+    <t>E3.3.15</t>
+  </si>
+  <si>
+    <t>E3.4.15</t>
+  </si>
+  <si>
+    <t>E3.5.15</t>
+  </si>
+  <si>
+    <t>E3.6.15</t>
+  </si>
+  <si>
+    <t>E3.7.15</t>
+  </si>
+  <si>
+    <t>E3.8.15</t>
+  </si>
+  <si>
+    <t>E3.1.16</t>
+  </si>
+  <si>
+    <t>E3.2.16</t>
+  </si>
+  <si>
+    <t>E3.3.16</t>
+  </si>
+  <si>
+    <t>E3.4.16</t>
+  </si>
+  <si>
+    <t>E3.5.16</t>
+  </si>
+  <si>
+    <t>E3.6.16</t>
+  </si>
+  <si>
+    <t>E3.7.16</t>
+  </si>
+  <si>
+    <t>E3.8.16</t>
+  </si>
+  <si>
+    <t>E3.1.17</t>
+  </si>
+  <si>
+    <t>E3.2.17</t>
+  </si>
+  <si>
+    <t>E3.3.17</t>
+  </si>
+  <si>
+    <t>E3.4.17</t>
+  </si>
+  <si>
+    <t>E3.5.17</t>
+  </si>
+  <si>
+    <t>E3.6.17</t>
+  </si>
+  <si>
+    <t>E3.7.17</t>
+  </si>
+  <si>
+    <t>E3.8.17</t>
+  </si>
+  <si>
+    <t>E3.1.18</t>
+  </si>
+  <si>
+    <t>E3.2.18</t>
+  </si>
+  <si>
+    <t>E3.3.18</t>
+  </si>
+  <si>
+    <t>E3.4.18</t>
+  </si>
+  <si>
+    <t>E3.5.18</t>
+  </si>
+  <si>
+    <t>E3.6.18</t>
+  </si>
+  <si>
+    <t>E3.7.18</t>
+  </si>
+  <si>
+    <t>E3.8.18</t>
+  </si>
+  <si>
+    <t>E3.1.19</t>
+  </si>
+  <si>
+    <t>E3.2.19</t>
+  </si>
+  <si>
+    <t>E3.3.19</t>
+  </si>
+  <si>
+    <t>E3.4.19</t>
+  </si>
+  <si>
+    <t>E3.5.19</t>
+  </si>
+  <si>
+    <t>E3.6.19</t>
+  </si>
+  <si>
+    <t>E3.7.19</t>
+  </si>
+  <si>
+    <t>E3.8.19</t>
+  </si>
+  <si>
+    <t>E3.1.20</t>
+  </si>
+  <si>
+    <t>E3.2.20</t>
+  </si>
+  <si>
+    <t>E3.3.20</t>
+  </si>
+  <si>
+    <t>E3.4.20</t>
+  </si>
+  <si>
+    <t>E3.5.20</t>
+  </si>
+  <si>
+    <t>E3.6.20</t>
+  </si>
+  <si>
+    <t>E3.7.20</t>
+  </si>
+  <si>
+    <t>E3.8.20</t>
   </si>
 </sst>
 </file>
@@ -479,7 +1040,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -496,6 +1057,18 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -521,12 +1094,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -877,8 +1453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -887,25 +1463,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1">
+      <c r="A1" s="6">
         <v>1</v>
       </c>
-      <c r="B1" s="4">
-        <v>44287</v>
-      </c>
-      <c r="C1" s="4">
-        <v>44287</v>
+      <c r="B1" s="7">
+        <v>44326</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="6">
         <v>2</v>
       </c>
-      <c r="B2" s="4">
-        <v>44301</v>
-      </c>
-      <c r="C2" s="4">
-        <v>44302</v>
+      <c r="B2" s="7">
+        <v>44326</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -913,10 +1483,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="4">
-        <v>44303</v>
+        <v>44327</v>
       </c>
       <c r="C3" s="4">
-        <v>44304</v>
+        <v>44329</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -924,10 +1494,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="4">
-        <v>44305</v>
+        <v>44330</v>
       </c>
       <c r="C4" s="4">
-        <v>44306</v>
+        <v>44332</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -935,10 +1505,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="4">
-        <v>44307</v>
+        <v>44333</v>
       </c>
       <c r="C5" s="4">
-        <v>44308</v>
+        <v>44335</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -946,10 +1516,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="4">
-        <v>44309</v>
+        <v>44336</v>
       </c>
       <c r="C6" s="4">
-        <v>44310</v>
+        <v>44338</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -959,10 +1529,10 @@
         <v>7</v>
       </c>
       <c r="B7" s="4">
-        <v>44311</v>
+        <v>44339</v>
       </c>
       <c r="C7" s="4">
-        <v>44312</v>
+        <v>44341</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -1004,10 +1574,10 @@
         <v>12</v>
       </c>
       <c r="B12" s="4">
-        <v>44313</v>
+        <v>44342</v>
       </c>
       <c r="C12" s="4">
-        <v>44314</v>
+        <v>44344</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1015,10 +1585,10 @@
         <v>13</v>
       </c>
       <c r="B13" s="4">
-        <v>44315</v>
+        <v>44345</v>
       </c>
       <c r="C13" s="4">
-        <v>44316</v>
+        <v>44347</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1233,26 +1803,656 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B1:I1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="7.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>330</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1276,7 +2476,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
